--- a/IPL/Delhi Capitals/Ajinkya Rahane .xlsx
+++ b/IPL/Delhi Capitals/Ajinkya Rahane .xlsx
@@ -408,16 +408,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C2" t="str">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D2" t="str">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E2" t="str">
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
         <v>1</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D3" t="str">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -448,16 +448,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C4" t="str">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -488,16 +488,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C6" t="str">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -508,13 +508,13 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C7" t="str">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
@@ -528,13 +528,13 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C8" t="str">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D8" t="str">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="str">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C9" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>

--- a/IPL/Delhi Capitals/Ajinkya Rahane .xlsx
+++ b/IPL/Delhi Capitals/Ajinkya Rahane .xlsx
@@ -408,16 +408,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C2" t="str">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E2" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C3" t="str">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -448,16 +448,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D4" t="str">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -468,13 +468,13 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C5" t="str">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C6" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>
@@ -508,13 +508,13 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C7" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
@@ -528,16 +528,16 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C8" t="str">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" t="str">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" t="str">
         <v>3</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         <v>Delhi Capitals</v>
       </c>
       <c r="C9" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
